--- a/experiment/parameter.xlsx
+++ b/experiment/parameter.xlsx
@@ -103,77 +103,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -382,7 +312,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -691,7 +620,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4487,34 +4415,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E10:E60">
-    <cfRule type="top10" dxfId="24" priority="22" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="22" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G60">
-    <cfRule type="top10" dxfId="23" priority="20" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="20" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I60">
-    <cfRule type="top10" dxfId="22" priority="19" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="19" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P60">
-    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="14" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H60">
-    <cfRule type="top10" dxfId="20" priority="12" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O60">
-    <cfRule type="top10" dxfId="19" priority="10" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N60">
-    <cfRule type="top10" dxfId="18" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F60">
-    <cfRule type="top10" dxfId="17" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M60">
-    <cfRule type="top10" dxfId="16" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L60">
-    <cfRule type="top10" dxfId="15" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4524,15 +4452,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8:P60"/>
+  <dimension ref="D8:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4540,7 +4468,6 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4548,9 +4475,8 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -4566,9 +4492,6 @@
       <c r="H9">
         <v>100</v>
       </c>
-      <c r="I9">
-        <v>200</v>
-      </c>
       <c r="K9" t="s">
         <v>4</v>
       </c>
@@ -4584,11 +4507,8 @@
       <c r="O9">
         <v>100</v>
       </c>
-      <c r="P9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>0</v>
       </c>
@@ -4598,6 +4518,9 @@
       <c r="F10">
         <v>1.115516</v>
       </c>
+      <c r="G10">
+        <v>1.1155679999999999</v>
+      </c>
       <c r="H10">
         <v>1.115462</v>
       </c>
@@ -4610,11 +4533,14 @@
       <c r="M10">
         <v>0.93254000000000004</v>
       </c>
+      <c r="N10">
+        <v>0.93257500000000004</v>
+      </c>
       <c r="O10">
         <v>0.93247199999999997</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>1</v>
       </c>
@@ -4624,6 +4550,9 @@
       <c r="F11">
         <v>0.92527599999999999</v>
       </c>
+      <c r="G11">
+        <v>0.92467699999999997</v>
+      </c>
       <c r="H11">
         <v>0.92482900000000001</v>
       </c>
@@ -4636,11 +4565,14 @@
       <c r="M11">
         <v>0.73419299999999998</v>
       </c>
+      <c r="N11">
+        <v>0.73350599999999999</v>
+      </c>
       <c r="O11">
         <v>0.733846</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>2</v>
       </c>
@@ -4650,6 +4582,9 @@
       <c r="F12">
         <v>0.91634599999999999</v>
       </c>
+      <c r="G12">
+        <v>0.91599299999999995</v>
+      </c>
       <c r="H12">
         <v>0.91609499999999999</v>
       </c>
@@ -4662,11 +4597,14 @@
       <c r="M12">
         <v>0.72529299999999997</v>
       </c>
+      <c r="N12">
+        <v>0.72480800000000001</v>
+      </c>
       <c r="O12">
         <v>0.72507500000000003</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>3</v>
       </c>
@@ -4676,6 +4614,9 @@
       <c r="F13">
         <v>0.91334099999999996</v>
       </c>
+      <c r="G13">
+        <v>0.91311900000000001</v>
+      </c>
       <c r="H13">
         <v>0.91317499999999996</v>
       </c>
@@ -4688,11 +4629,14 @@
       <c r="M13">
         <v>0.72205399999999997</v>
       </c>
+      <c r="N13">
+        <v>0.72167700000000001</v>
+      </c>
       <c r="O13">
         <v>0.72187800000000002</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>4</v>
       </c>
@@ -4702,6 +4646,9 @@
       <c r="F14">
         <v>0.91186900000000004</v>
       </c>
+      <c r="G14">
+        <v>0.91172299999999995</v>
+      </c>
       <c r="H14">
         <v>0.91175300000000004</v>
       </c>
@@ -4714,11 +4661,14 @@
       <c r="M14">
         <v>0.72037099999999998</v>
       </c>
+      <c r="N14">
+        <v>0.72006099999999995</v>
+      </c>
       <c r="O14">
         <v>0.72021900000000005</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D15">
         <v>5</v>
       </c>
@@ -4728,6 +4678,9 @@
       <c r="F15">
         <v>0.91078199999999998</v>
       </c>
+      <c r="G15">
+        <v>0.91069100000000003</v>
+      </c>
       <c r="H15">
         <v>0.91071199999999997</v>
       </c>
@@ -4740,11 +4693,14 @@
       <c r="M15">
         <v>0.71915799999999996</v>
       </c>
+      <c r="N15">
+        <v>0.71888700000000005</v>
+      </c>
       <c r="O15">
         <v>0.71903700000000004</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>6</v>
       </c>
@@ -4754,6 +4710,9 @@
       <c r="F16">
         <v>0.90943799999999997</v>
       </c>
+      <c r="G16">
+        <v>0.90940500000000002</v>
+      </c>
       <c r="H16">
         <v>0.90943200000000002</v>
       </c>
@@ -4765,6 +4724,9 @@
       </c>
       <c r="M16">
         <v>0.71782800000000002</v>
+      </c>
+      <c r="N16">
+        <v>0.71760299999999999</v>
       </c>
       <c r="O16">
         <v>0.71775</v>
@@ -4780,6 +4742,9 @@
       <c r="F17">
         <v>0.90731899999999999</v>
       </c>
+      <c r="G17">
+        <v>0.90735500000000002</v>
+      </c>
       <c r="H17">
         <v>0.90740100000000001</v>
       </c>
@@ -4791,6 +4756,9 @@
       </c>
       <c r="M17">
         <v>0.71588600000000002</v>
+      </c>
+      <c r="N17">
+        <v>0.71572599999999997</v>
       </c>
       <c r="O17">
         <v>0.71587999999999996</v>
@@ -4806,6 +4774,9 @@
       <c r="F18">
         <v>0.90434400000000004</v>
       </c>
+      <c r="G18">
+        <v>0.90444400000000003</v>
+      </c>
       <c r="H18">
         <v>0.90450200000000003</v>
       </c>
@@ -4817,6 +4788,9 @@
       </c>
       <c r="M18">
         <v>0.71322700000000006</v>
+      </c>
+      <c r="N18">
+        <v>0.71312299999999995</v>
       </c>
       <c r="O18">
         <v>0.71328199999999997</v>
@@ -4832,6 +4806,9 @@
       <c r="F19">
         <v>0.90105299999999999</v>
       </c>
+      <c r="G19">
+        <v>0.90119300000000002</v>
+      </c>
       <c r="H19">
         <v>0.90123699999999995</v>
       </c>
@@ -4843,6 +4820,9 @@
       </c>
       <c r="M19">
         <v>0.71027700000000005</v>
+      </c>
+      <c r="N19">
+        <v>0.71019900000000002</v>
       </c>
       <c r="O19">
         <v>0.71035499999999996</v>
@@ -4858,6 +4838,9 @@
       <c r="F20">
         <v>0.89800800000000003</v>
       </c>
+      <c r="G20">
+        <v>0.89817199999999997</v>
+      </c>
       <c r="H20">
         <v>0.89818299999999995</v>
       </c>
@@ -4869,6 +4852,9 @@
       </c>
       <c r="M20">
         <v>0.70752000000000004</v>
+      </c>
+      <c r="N20">
+        <v>0.70745400000000003</v>
       </c>
       <c r="O20">
         <v>0.70759399999999995</v>
@@ -4884,6 +4870,9 @@
       <c r="F21">
         <v>0.89538099999999998</v>
       </c>
+      <c r="G21">
+        <v>0.89556500000000006</v>
+      </c>
       <c r="H21">
         <v>0.89553499999999997</v>
       </c>
@@ -4895,6 +4884,9 @@
       </c>
       <c r="M21">
         <v>0.70515899999999998</v>
+      </c>
+      <c r="N21">
+        <v>0.70509500000000003</v>
       </c>
       <c r="O21">
         <v>0.70522300000000004</v>
@@ -4910,6 +4902,9 @@
       <c r="F22">
         <v>0.89307999999999998</v>
       </c>
+      <c r="G22">
+        <v>0.893289</v>
+      </c>
       <c r="H22">
         <v>0.89321799999999996</v>
       </c>
@@ -4921,6 +4916,9 @@
       </c>
       <c r="M22">
         <v>0.70309900000000003</v>
+      </c>
+      <c r="N22">
+        <v>0.70304</v>
       </c>
       <c r="O22">
         <v>0.70314600000000005</v>
@@ -4936,6 +4934,9 @@
       <c r="F23">
         <v>0.89093699999999998</v>
       </c>
+      <c r="G23">
+        <v>0.89117500000000005</v>
+      </c>
       <c r="H23">
         <v>0.89106200000000002</v>
       </c>
@@ -4947,6 +4948,9 @@
       </c>
       <c r="M23">
         <v>0.70119900000000002</v>
+      </c>
+      <c r="N23">
+        <v>0.70115899999999998</v>
       </c>
       <c r="O23">
         <v>0.70123100000000005</v>
@@ -4962,6 +4966,9 @@
       <c r="F24">
         <v>0.88878000000000001</v>
       </c>
+      <c r="G24">
+        <v>0.88905299999999998</v>
+      </c>
       <c r="H24">
         <v>0.88889700000000005</v>
       </c>
@@ -4973,6 +4980,9 @@
       </c>
       <c r="M24">
         <v>0.69932099999999997</v>
+      </c>
+      <c r="N24">
+        <v>0.69930499999999995</v>
       </c>
       <c r="O24">
         <v>0.69935400000000003</v>
@@ -4988,6 +4998,9 @@
       <c r="F25">
         <v>0.88646599999999998</v>
       </c>
+      <c r="G25">
+        <v>0.88678100000000004</v>
+      </c>
       <c r="H25">
         <v>0.88658000000000003</v>
       </c>
@@ -4999,6 +5012,9 @@
       </c>
       <c r="M25">
         <v>0.69735100000000005</v>
+      </c>
+      <c r="N25">
+        <v>0.69737099999999996</v>
       </c>
       <c r="O25">
         <v>0.697384</v>
@@ -5014,6 +5030,9 @@
       <c r="F26">
         <v>0.88390599999999997</v>
       </c>
+      <c r="G26">
+        <v>0.88426400000000005</v>
+      </c>
       <c r="H26">
         <v>0.88401799999999997</v>
       </c>
@@ -5025,6 +5044,9 @@
       </c>
       <c r="M26">
         <v>0.69520099999999996</v>
+      </c>
+      <c r="N26">
+        <v>0.69525800000000004</v>
       </c>
       <c r="O26">
         <v>0.69523199999999996</v>
@@ -5040,6 +5062,9 @@
       <c r="F27">
         <v>0.88108500000000001</v>
       </c>
+      <c r="G27">
+        <v>0.88147900000000001</v>
+      </c>
       <c r="H27">
         <v>0.88119599999999998</v>
       </c>
@@ -5051,6 +5076,9 @@
       </c>
       <c r="M27">
         <v>0.69284999999999997</v>
+      </c>
+      <c r="N27">
+        <v>0.69294</v>
       </c>
       <c r="O27">
         <v>0.69287900000000002</v>
@@ -5066,6 +5094,9 @@
       <c r="F28">
         <v>0.87807500000000005</v>
       </c>
+      <c r="G28">
+        <v>0.87849200000000005</v>
+      </c>
       <c r="H28">
         <v>0.87818799999999997</v>
       </c>
@@ -5077,6 +5108,9 @@
       </c>
       <c r="M28">
         <v>0.69034399999999996</v>
+      </c>
+      <c r="N28">
+        <v>0.69044799999999995</v>
       </c>
       <c r="O28">
         <v>0.69035599999999997</v>
@@ -5092,6 +5126,9 @@
       <c r="F29">
         <v>0.875004</v>
       </c>
+      <c r="G29">
+        <v>0.87542500000000001</v>
+      </c>
       <c r="H29">
         <v>0.87512000000000001</v>
       </c>
@@ -5103,6 +5140,9 @@
       </c>
       <c r="M29">
         <v>0.68778499999999998</v>
+      </c>
+      <c r="N29">
+        <v>0.68788700000000003</v>
       </c>
       <c r="O29">
         <v>0.68779699999999999</v>
@@ -5118,6 +5158,9 @@
       <c r="F30">
         <v>0.87199199999999999</v>
       </c>
+      <c r="G30">
+        <v>0.87240499999999999</v>
+      </c>
       <c r="H30">
         <v>0.872116</v>
       </c>
@@ -5129,6 +5172,9 @@
       </c>
       <c r="M30">
         <v>0.68526799999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.68536699999999995</v>
       </c>
       <c r="O30">
         <v>0.68527800000000005</v>
@@ -5144,6 +5190,9 @@
       <c r="F31">
         <v>0.86911499999999997</v>
       </c>
+      <c r="G31">
+        <v>0.86951400000000001</v>
+      </c>
       <c r="H31">
         <v>0.86924800000000002</v>
       </c>
@@ -5155,6 +5204,9 @@
       </c>
       <c r="M31">
         <v>0.68284400000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.68294699999999997</v>
       </c>
       <c r="O31">
         <v>0.68285600000000002</v>
@@ -5170,6 +5222,9 @@
       <c r="F32">
         <v>0.866394</v>
       </c>
+      <c r="G32">
+        <v>0.86677800000000005</v>
+      </c>
       <c r="H32">
         <v>0.86653899999999995</v>
       </c>
@@ -5181,6 +5236,9 @@
       </c>
       <c r="M32">
         <v>0.68054199999999998</v>
+      </c>
+      <c r="N32">
+        <v>0.68064199999999997</v>
       </c>
       <c r="O32">
         <v>0.680558</v>
@@ -5196,6 +5254,9 @@
       <c r="F33">
         <v>0.86382400000000004</v>
       </c>
+      <c r="G33">
+        <v>0.86419100000000004</v>
+      </c>
       <c r="H33">
         <v>0.86397699999999999</v>
       </c>
@@ -5207,6 +5268,9 @@
       </c>
       <c r="M33">
         <v>0.67835000000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.67843699999999996</v>
       </c>
       <c r="O33">
         <v>0.67836799999999997</v>
@@ -5222,6 +5286,9 @@
       <c r="F34">
         <v>0.86138800000000004</v>
       </c>
+      <c r="G34">
+        <v>0.86173699999999998</v>
+      </c>
       <c r="H34">
         <v>0.86154600000000003</v>
       </c>
@@ -5233,6 +5300,9 @@
       </c>
       <c r="M34">
         <v>0.67626500000000001</v>
+      </c>
+      <c r="N34">
+        <v>0.67633799999999999</v>
       </c>
       <c r="O34">
         <v>0.67628999999999995</v>
@@ -5248,6 +5318,9 @@
       <c r="F35">
         <v>0.85907999999999995</v>
       </c>
+      <c r="G35">
+        <v>0.85940399999999995</v>
+      </c>
       <c r="H35">
         <v>0.85923400000000005</v>
       </c>
@@ -5259,6 +5332,9 @@
       </c>
       <c r="M35">
         <v>0.67428900000000003</v>
+      </c>
+      <c r="N35">
+        <v>0.67434899999999998</v>
       </c>
       <c r="O35">
         <v>0.674315</v>
@@ -5274,6 +5350,9 @@
       <c r="F36">
         <v>0.85689700000000002</v>
       </c>
+      <c r="G36">
+        <v>0.85719299999999998</v>
+      </c>
       <c r="H36">
         <v>0.85704000000000002</v>
       </c>
@@ -5285,6 +5364,9 @@
       </c>
       <c r="M36">
         <v>0.67241700000000004</v>
+      </c>
+      <c r="N36">
+        <v>0.67245900000000003</v>
       </c>
       <c r="O36">
         <v>0.67243799999999998</v>
@@ -5300,6 +5382,9 @@
       <c r="F37">
         <v>0.85484199999999999</v>
       </c>
+      <c r="G37">
+        <v>0.85510600000000003</v>
+      </c>
       <c r="H37">
         <v>0.854966</v>
       </c>
@@ -5311,6 +5396,9 @@
       </c>
       <c r="M37">
         <v>0.67066300000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.67068300000000003</v>
       </c>
       <c r="O37">
         <v>0.67066499999999996</v>
@@ -5326,6 +5414,9 @@
       <c r="F38">
         <v>0.85291600000000001</v>
       </c>
+      <c r="G38">
+        <v>0.85314699999999999</v>
+      </c>
       <c r="H38">
         <v>0.853016</v>
       </c>
@@ -5337,6 +5428,9 @@
       </c>
       <c r="M38">
         <v>0.66902499999999998</v>
+      </c>
+      <c r="N38">
+        <v>0.66901900000000003</v>
       </c>
       <c r="O38">
         <v>0.66899399999999998</v>
@@ -5352,6 +5446,9 @@
       <c r="F39">
         <v>0.85111700000000001</v>
       </c>
+      <c r="G39">
+        <v>0.85131299999999999</v>
+      </c>
       <c r="H39">
         <v>0.85118799999999994</v>
       </c>
@@ -5363,6 +5460,9 @@
       </c>
       <c r="M39">
         <v>0.66747999999999996</v>
+      </c>
+      <c r="N39">
+        <v>0.667462</v>
       </c>
       <c r="O39">
         <v>0.66742699999999999</v>
@@ -5378,6 +5478,9 @@
       <c r="F40">
         <v>0.84943900000000006</v>
       </c>
+      <c r="G40">
+        <v>0.84960199999999997</v>
+      </c>
       <c r="H40">
         <v>0.84947899999999998</v>
       </c>
@@ -5389,6 +5492,9 @@
       </c>
       <c r="M40">
         <v>0.66603199999999996</v>
+      </c>
+      <c r="N40">
+        <v>0.66600099999999995</v>
       </c>
       <c r="O40">
         <v>0.66595599999999999</v>
@@ -5404,6 +5510,9 @@
       <c r="F41">
         <v>0.84787500000000005</v>
       </c>
+      <c r="G41">
+        <v>0.84800600000000004</v>
+      </c>
       <c r="H41">
         <v>0.84788300000000005</v>
       </c>
@@ -5415,6 +5524,9 @@
       </c>
       <c r="M41">
         <v>0.66467799999999999</v>
+      </c>
+      <c r="N41">
+        <v>0.66463099999999997</v>
       </c>
       <c r="O41">
         <v>0.66458200000000001</v>
@@ -5430,6 +5542,9 @@
       <c r="F42">
         <v>0.84641900000000003</v>
       </c>
+      <c r="G42">
+        <v>0.84651799999999999</v>
+      </c>
       <c r="H42">
         <v>0.84639600000000004</v>
       </c>
@@ -5441,6 +5556,9 @@
       </c>
       <c r="M42">
         <v>0.66340900000000003</v>
+      </c>
+      <c r="N42">
+        <v>0.66334300000000002</v>
       </c>
       <c r="O42">
         <v>0.66329099999999996</v>
@@ -5456,6 +5574,9 @@
       <c r="F43">
         <v>0.84506499999999996</v>
       </c>
+      <c r="G43">
+        <v>0.84513300000000002</v>
+      </c>
       <c r="H43">
         <v>0.84501199999999999</v>
       </c>
@@ -5467,6 +5588,9 @@
       </c>
       <c r="M43">
         <v>0.66222499999999995</v>
+      </c>
+      <c r="N43">
+        <v>0.66213200000000005</v>
       </c>
       <c r="O43">
         <v>0.66208400000000001</v>
@@ -5482,6 +5606,9 @@
       <c r="F44">
         <v>0.843808</v>
       </c>
+      <c r="G44">
+        <v>0.84384499999999996</v>
+      </c>
       <c r="H44">
         <v>0.84372899999999995</v>
       </c>
@@ -5493,6 +5620,9 @@
       </c>
       <c r="M44">
         <v>0.66111500000000001</v>
+      </c>
+      <c r="N44">
+        <v>0.66100199999999998</v>
       </c>
       <c r="O44">
         <v>0.66095800000000005</v>
@@ -5508,6 +5638,9 @@
       <c r="F45">
         <v>0.84264499999999998</v>
       </c>
+      <c r="G45">
+        <v>0.84265299999999999</v>
+      </c>
       <c r="H45">
         <v>0.84254200000000001</v>
       </c>
@@ -5519,6 +5652,9 @@
       </c>
       <c r="M45">
         <v>0.660076</v>
+      </c>
+      <c r="N45">
+        <v>0.65994900000000001</v>
       </c>
       <c r="O45">
         <v>0.65990499999999996</v>
@@ -5534,6 +5670,9 @@
       <c r="F46">
         <v>0.84157599999999999</v>
       </c>
+      <c r="G46">
+        <v>0.84155599999999997</v>
+      </c>
       <c r="H46">
         <v>0.84145300000000001</v>
       </c>
@@ -5545,6 +5684,9 @@
       </c>
       <c r="M46">
         <v>0.65911200000000003</v>
+      </c>
+      <c r="N46">
+        <v>0.65897300000000003</v>
       </c>
       <c r="O46">
         <v>0.65892899999999999</v>
@@ -5560,6 +5702,9 @@
       <c r="F47">
         <v>0.84060000000000001</v>
       </c>
+      <c r="G47">
+        <v>0.84055199999999997</v>
+      </c>
       <c r="H47">
         <v>0.84045899999999996</v>
       </c>
@@ -5571,6 +5716,9 @@
       </c>
       <c r="M47">
         <v>0.65822499999999995</v>
+      </c>
+      <c r="N47">
+        <v>0.65807499999999997</v>
       </c>
       <c r="O47">
         <v>0.65802799999999995</v>
@@ -5586,6 +5734,9 @@
       <c r="F48">
         <v>0.83971600000000002</v>
       </c>
+      <c r="G48">
+        <v>0.83964300000000003</v>
+      </c>
       <c r="H48">
         <v>0.839561</v>
       </c>
@@ -5597,6 +5748,9 @@
       </c>
       <c r="M48">
         <v>0.657412</v>
+      </c>
+      <c r="N48">
+        <v>0.65725999999999996</v>
       </c>
       <c r="O48">
         <v>0.65720299999999998</v>
@@ -5612,6 +5766,9 @@
       <c r="F49">
         <v>0.838924</v>
       </c>
+      <c r="G49">
+        <v>0.83882800000000002</v>
+      </c>
       <c r="H49">
         <v>0.83875699999999997</v>
       </c>
@@ -5623,6 +5780,9 @@
       </c>
       <c r="M49">
         <v>0.65667399999999998</v>
+      </c>
+      <c r="N49">
+        <v>0.65652999999999995</v>
       </c>
       <c r="O49">
         <v>0.65646099999999996</v>
@@ -5638,6 +5798,9 @@
       <c r="F50">
         <v>0.83822399999999997</v>
       </c>
+      <c r="G50">
+        <v>0.83810600000000002</v>
+      </c>
       <c r="H50">
         <v>0.83804900000000004</v>
       </c>
@@ -5649,6 +5812,9 @@
       </c>
       <c r="M50">
         <v>0.65602099999999997</v>
+      </c>
+      <c r="N50">
+        <v>0.65588199999999997</v>
       </c>
       <c r="O50">
         <v>0.65579299999999996</v>
@@ -5664,6 +5830,9 @@
       <c r="F51">
         <v>0.83761699999999994</v>
       </c>
+      <c r="G51">
+        <v>0.83747899999999997</v>
+      </c>
       <c r="H51">
         <v>0.83743599999999996</v>
       </c>
@@ -5675,6 +5844,9 @@
       </c>
       <c r="M51">
         <v>0.65545200000000003</v>
+      </c>
+      <c r="N51">
+        <v>0.65530900000000003</v>
       </c>
       <c r="O51">
         <v>0.65520599999999996</v>
@@ -5690,6 +5862,9 @@
       <c r="F52">
         <v>0.83709999999999996</v>
       </c>
+      <c r="G52">
+        <v>0.83694599999999997</v>
+      </c>
       <c r="H52">
         <v>0.83691499999999996</v>
       </c>
@@ -5701,6 +5876,9 @@
       </c>
       <c r="M52">
         <v>0.65495199999999998</v>
+      </c>
+      <c r="N52">
+        <v>0.65480300000000002</v>
       </c>
       <c r="O52">
         <v>0.65470200000000001</v>
@@ -5716,6 +5894,9 @@
       <c r="F53">
         <v>0.836673</v>
       </c>
+      <c r="G53">
+        <v>0.836503</v>
+      </c>
       <c r="H53">
         <v>0.83648599999999995</v>
       </c>
@@ -5727,6 +5908,9 @@
       </c>
       <c r="M53">
         <v>0.65452299999999997</v>
+      </c>
+      <c r="N53">
+        <v>0.65436899999999998</v>
       </c>
       <c r="O53">
         <v>0.65427000000000002</v>
@@ -5742,6 +5926,9 @@
       <c r="F54">
         <v>0.83633400000000002</v>
       </c>
+      <c r="G54">
+        <v>0.83615099999999998</v>
+      </c>
       <c r="H54">
         <v>0.83614599999999994</v>
       </c>
@@ -5753,6 +5940,9 @@
       </c>
       <c r="M54">
         <v>0.65417000000000003</v>
+      </c>
+      <c r="N54">
+        <v>0.65400999999999998</v>
       </c>
       <c r="O54">
         <v>0.653914</v>
@@ -5768,6 +5958,9 @@
       <c r="F55">
         <v>0.83608000000000005</v>
       </c>
+      <c r="G55">
+        <v>0.83588499999999999</v>
+      </c>
       <c r="H55">
         <v>0.835893</v>
       </c>
@@ -5779,6 +5972,9 @@
       </c>
       <c r="M55">
         <v>0.65388400000000002</v>
+      </c>
+      <c r="N55">
+        <v>0.653721</v>
       </c>
       <c r="O55">
         <v>0.65363300000000002</v>
@@ -5794,6 +5990,9 @@
       <c r="F56">
         <v>0.83590799999999998</v>
       </c>
+      <c r="G56">
+        <v>0.83570299999999997</v>
+      </c>
       <c r="H56">
         <v>0.83572199999999996</v>
       </c>
@@ -5805,6 +6004,9 @@
       </c>
       <c r="M56">
         <v>0.65366599999999997</v>
+      </c>
+      <c r="N56">
+        <v>0.65350399999999997</v>
       </c>
       <c r="O56">
         <v>0.65342</v>
@@ -5820,6 +6022,9 @@
       <c r="F57">
         <v>0.83581499999999997</v>
       </c>
+      <c r="G57">
+        <v>0.83560100000000004</v>
+      </c>
       <c r="H57">
         <v>0.83562999999999998</v>
       </c>
@@ -5831,6 +6036,9 @@
       </c>
       <c r="M57">
         <v>0.65351099999999995</v>
+      </c>
+      <c r="N57">
+        <v>0.65335799999999999</v>
       </c>
       <c r="O57">
         <v>0.65327500000000005</v>
@@ -5846,6 +6054,9 @@
       <c r="F58">
         <v>0.83579499999999995</v>
       </c>
+      <c r="G58">
+        <v>0.83557300000000001</v>
+      </c>
       <c r="H58">
         <v>0.83561300000000005</v>
       </c>
@@ -5857,6 +6068,9 @@
       </c>
       <c r="M58">
         <v>0.65342500000000003</v>
+      </c>
+      <c r="N58">
+        <v>0.65327500000000005</v>
       </c>
       <c r="O58">
         <v>0.65319400000000005</v>
@@ -5872,6 +6086,9 @@
       <c r="F59">
         <v>0.83584499999999995</v>
       </c>
+      <c r="G59">
+        <v>0.83561600000000003</v>
+      </c>
       <c r="H59">
         <v>0.83566600000000002</v>
       </c>
@@ -5883,6 +6100,9 @@
       </c>
       <c r="M59">
         <v>0.65339700000000001</v>
+      </c>
+      <c r="N59">
+        <v>0.65325</v>
       </c>
       <c r="O59">
         <v>0.65316799999999997</v>
@@ -5898,6 +6118,9 @@
       <c r="F60">
         <v>0.83596000000000004</v>
       </c>
+      <c r="G60">
+        <v>0.83572299999999999</v>
+      </c>
       <c r="H60">
         <v>0.83578300000000005</v>
       </c>
@@ -5910,32 +6133,41 @@
       <c r="M60">
         <v>0.65342599999999995</v>
       </c>
+      <c r="N60">
+        <v>0.65327900000000005</v>
+      </c>
       <c r="O60">
         <v>0.65319700000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H10:H60">
-    <cfRule type="top10" dxfId="10" priority="6" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O60">
-    <cfRule type="top10" dxfId="9" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E60">
-    <cfRule type="top10" dxfId="8" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L60">
-    <cfRule type="top10" dxfId="7" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F60">
-    <cfRule type="top10" dxfId="6" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M60">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G60">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:N60">
     <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
